--- a/doc/d2_ファイル構成一覧表_櫻井家.xlsx
+++ b/doc/d2_ファイル構成一覧表_櫻井家.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA792696-B985-490E-9E06-905DFDACA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66F210-9BF0-4834-89AF-17D4504712C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="0" windowWidth="10700" windowHeight="10200" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -269,6 +269,570 @@
   </si>
   <si>
     <t>コミュニティページjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページ用</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User関連のデータアクセス用DAO</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録ページ用</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpConfirmServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録確認ページ用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページ用js</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign_up.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録ページjs</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ用</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ページ用</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostConfirmServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容確認ページ用</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArticleDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事データアクセス用のDAO</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事1件分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集ページ用</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditConfirmServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認ページ用</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカクニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArticleServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ページ用</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント1件のデータを持つ、エンティティモデル</t>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommunityServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティページ用</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommunityDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ関連データアクセス用のDAO</t>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Community.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ1つのデータを持つ、エンティティモデル</t>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remark.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ内での発言1件のデータを持つ、エンティティモデル</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommunityCreateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ作成ページ用</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommunityCreateConfirmServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ作成確認ページ用</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ページおよび編集ページ用js</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ページ用js</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティページ用js</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_create.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ作成ページ用js</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通css</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン前の画面用css</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテンツ新規作成画面用css</t>
+    <rPh sb="5" eb="9">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirm.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面用css</t>
+    <rPh sb="0" eb="5">
+      <t>カクニンガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成結果通知用css</t>
+    <rPh sb="0" eb="4">
+      <t>サクセイケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ツウチヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果用css</t>
+    <rPh sb="0" eb="5">
+      <t>ケンサクケッカヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ用css</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ページ用css</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティページ用css</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向井</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢羽々</t>
+    <rPh sb="0" eb="3">
+      <t>ヤハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫻井</t>
+    <rPh sb="0" eb="2">
+      <t>サクライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +908,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,17 +1230,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
@@ -695,85 +1265,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
+    <row r="3" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -783,54 +1356,57 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
+      <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -840,35 +1416,37 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
+      <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -878,16 +1456,17 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
+      <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -897,35 +1476,37 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
+      <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
+      <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -935,54 +1516,57 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
+      <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
+      <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
+      <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -992,306 +1576,734 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="3">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="3">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="3">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="3">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1309,12 +2321,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1485,6 +2491,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -1494,23 +2506,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,4 +2522,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/d2_ファイル構成一覧表_櫻井家.xlsx
+++ b/doc/d2_ファイル構成一覧表_櫻井家.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66F210-9BF0-4834-89AF-17D4504712C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32754AB0-3C89-4886-B60B-816F88611E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="14400" windowHeight="9600" firstSheet="2" activeTab="6" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全て" sheetId="1" r:id="rId1"/>
+    <sheet name="ログイン・ユーザー登録" sheetId="2" r:id="rId2"/>
+    <sheet name="トップページ" sheetId="3" r:id="rId3"/>
+    <sheet name="投稿" sheetId="4" r:id="rId4"/>
+    <sheet name="編集" sheetId="5" r:id="rId5"/>
+    <sheet name="記事閲覧" sheetId="6" r:id="rId6"/>
+    <sheet name="コミュニティ" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -900,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,12 +914,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1265,88 +1265,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1361,12 +1361,12 @@
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1381,12 +1381,12 @@
       <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1401,12 +1401,12 @@
       <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1421,12 +1421,12 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1441,12 +1441,12 @@
       <c r="F11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1461,12 +1461,12 @@
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1481,12 +1481,12 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1706,7 +1706,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1986,7 +1986,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2066,7 +2066,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2126,7 +2126,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2166,7 +2166,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2186,7 +2186,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2302,6 +2302,1624 @@
         <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E4BF4-3540-459B-B018-7226D63BFF2A}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A407F-606F-4F67-B00E-40C2792C6061}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C6C435-6C7B-4F27-BDCA-6E98888CBC2A}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31355C94-898E-4A72-BC70-2C121E8858F2}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7DE1C8-6613-416C-B29A-856CA42DDAB6}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30C2277-AA0F-4D73-AE8A-6165A07DB0B8}">
+  <dimension ref="B2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2312,12 +3930,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2492,15 +4107,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2525,18 +4152,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/d2_ファイル構成一覧表_櫻井家.xlsx
+++ b/doc/d2_ファイル構成一覧表_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32754AB0-3C89-4886-B60B-816F88611E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ECD35-0F03-4A6C-861F-0F89FB1AA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="14400" windowHeight="9600" firstSheet="2" activeTab="6" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="14400" windowHeight="9600" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全て" sheetId="1" r:id="rId1"/>
@@ -353,23 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SignUpConfirmServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録確認ページ用</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>javascript</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,6 +821,29 @@
     <t>渡辺</t>
     <rPh sb="0" eb="2">
       <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録処理および登録通知ページ用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1232,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1282,7 +1288,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1302,7 +1308,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1310,19 +1316,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1342,7 +1348,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1362,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1382,7 +1388,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1390,19 +1396,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1422,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1436,13 +1442,13 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1462,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1482,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1496,13 +1502,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1522,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1536,13 +1542,13 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1550,19 +1556,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1582,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1596,13 +1602,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1616,13 +1622,13 @@
         <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1636,13 +1642,13 @@
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1662,7 +1668,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1682,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1696,13 +1702,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1722,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1736,13 +1742,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1762,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1782,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1802,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1816,13 +1822,13 @@
         <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1836,13 +1842,13 @@
         <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1850,19 +1856,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1882,7 +1888,7 @@
         <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1902,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1916,13 +1922,13 @@
         <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1936,13 +1942,13 @@
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1956,13 +1962,13 @@
         <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1976,13 +1982,13 @@
         <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1990,19 +1996,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2022,7 +2028,7 @@
         <v>41</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2036,13 +2042,13 @@
         <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2050,19 +2056,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2082,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2096,13 +2102,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2122,7 +2128,7 @@
         <v>40</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2130,19 +2136,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2150,19 +2156,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2170,19 +2176,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2190,19 +2196,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2210,19 +2216,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2230,19 +2236,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2250,19 +2256,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2270,19 +2276,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2290,19 +2296,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2315,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E4BF4-3540-459B-B018-7226D63BFF2A}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2365,7 +2371,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2385,7 +2391,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2393,19 +2399,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2425,7 +2431,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2445,7 +2451,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2465,7 +2471,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2473,19 +2479,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2505,7 +2511,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2519,13 +2525,13 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2545,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2565,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2573,19 +2579,19 @@
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2642,13 +2648,13 @@
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2668,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2676,19 +2682,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2696,19 +2702,19 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2765,13 +2771,13 @@
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2779,19 +2785,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2811,7 +2817,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2825,13 +2831,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2845,13 +2851,13 @@
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2865,13 +2871,13 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2891,7 +2897,7 @@
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2911,7 +2917,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2919,19 +2925,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2939,19 +2945,19 @@
         <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2959,19 +2965,19 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2979,19 +2985,19 @@
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3042,19 +3048,19 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3068,13 +3074,13 @@
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3088,13 +3094,13 @@
         <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3108,13 +3114,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3134,7 +3140,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3148,13 +3154,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3174,7 +3180,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3194,7 +3200,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3202,19 +3208,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3222,19 +3228,19 @@
         <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3242,19 +3248,19 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3262,19 +3268,19 @@
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3331,13 +3337,13 @@
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3351,13 +3357,13 @@
         <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3377,7 +3383,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3391,13 +3397,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3411,13 +3417,13 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3425,19 +3431,19 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3457,7 +3463,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3465,19 +3471,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3485,19 +3491,19 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3505,19 +3511,19 @@
         <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30C2277-AA0F-4D73-AE8A-6165A07DB0B8}">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -3580,7 +3586,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3594,13 +3600,13 @@
         <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3614,13 +3620,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3634,13 +3640,13 @@
         <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3654,13 +3660,13 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3668,19 +3674,19 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3700,7 +3706,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3714,13 +3720,13 @@
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3728,19 +3734,19 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3760,7 +3766,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3774,13 +3780,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3800,7 +3806,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3808,19 +3814,19 @@
         <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3828,19 +3834,19 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3848,19 +3854,19 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3868,19 +3874,19 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3888,19 +3894,19 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3908,19 +3914,19 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3930,9 +3936,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4107,27 +4116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4152,9 +4149,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/d2_ファイル構成一覧表_櫻井家.xlsx
+++ b/doc/d2_ファイル構成一覧表_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ECD35-0F03-4A6C-861F-0F89FB1AA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3717AB5E-809F-4D87-AAD9-509B20968011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="14400" windowHeight="9600" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="-16200" windowWidth="29190" windowHeight="22365" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全て" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="127">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -845,6 +845,10 @@
     <rPh sb="18" eb="19">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1238,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
@@ -2321,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E4BF4-3540-459B-B018-7226D63BFF2A}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="F25:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3294,7 +3298,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3457,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
@@ -3936,15 +3940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4115,6 +4110,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4122,14 +4126,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4144,6 +4140,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/d2_ファイル構成一覧表_櫻井家.xlsx
+++ b/doc/d2_ファイル構成一覧表_櫻井家.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3717AB5E-809F-4D87-AAD9-509B20968011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0582F8B-B7BD-4811-8C4F-DDB484975C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="-16200" windowWidth="29190" windowHeight="22365" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="全て" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="133">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -849,6 +849,51 @@
   </si>
   <si>
     <t>article.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス変換用のDAO</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス(逆)変換用のDAO</t>
+    <rPh sb="9" eb="10">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReFlag.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事、コミュニティ検索用</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケンサクヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -916,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +969,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G54"/>
+  <dimension ref="B2:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2313,6 +2361,66 @@
       </c>
       <c r="G54" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="3">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="3">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3940,6 +4048,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4110,15 +4227,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4126,6 +4234,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4140,14 +4256,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
